--- a/data/Availability.xlsx
+++ b/data/Availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunter\Desktop\Excel\Website\reptilecare\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{960CCACB-FFDE-4805-811F-9C432CBF092B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A70C7E-1364-4D89-AD6B-3FE1C8261D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{69AD1623-D71A-4EF5-BEF7-CD540B976A5E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Eastern Collared Lizard</t>
+  </si>
+  <si>
+    <t>Crested Gecko</t>
   </si>
 </sst>
 </file>
@@ -429,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AC1383-ED13-40CA-B8FB-C15650252870}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,6 +516,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45802</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7550</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6867</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D2" xr:uid="{E9AC1383-ED13-40CA-B8FB-C15650252870}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
